--- a/global_data/day_data/603516.xlsx
+++ b/global_data/day_data/603516.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1753"/>
+  <dimension ref="A1:I1755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -51245,6 +51247,64 @@
         <v>0.09314389762686347</v>
       </c>
     </row>
+    <row r="1754" spans="1:9">
+      <c r="A1754" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1754">
+        <v>34</v>
+      </c>
+      <c r="C1754">
+        <v>35.11</v>
+      </c>
+      <c r="D1754">
+        <v>33.75</v>
+      </c>
+      <c r="E1754">
+        <v>33.77</v>
+      </c>
+      <c r="F1754">
+        <v>12231658</v>
+      </c>
+      <c r="G1754">
+        <v>421299305</v>
+      </c>
+      <c r="H1754">
+        <v>201841779</v>
+      </c>
+      <c r="I1754">
+        <v>0.06060022885549379</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:9">
+      <c r="A1755" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1755">
+        <v>33.81</v>
+      </c>
+      <c r="C1755">
+        <v>34.77</v>
+      </c>
+      <c r="D1755">
+        <v>33.4</v>
+      </c>
+      <c r="E1755">
+        <v>34.33</v>
+      </c>
+      <c r="F1755">
+        <v>8414544</v>
+      </c>
+      <c r="G1755">
+        <v>288715005</v>
+      </c>
+      <c r="H1755">
+        <v>201841779</v>
+      </c>
+      <c r="I1755">
+        <v>0.04168881210663527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
